--- a/magneti che girano.xlsx
+++ b/magneti che girano.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>4,5</t>
   </si>
@@ -32,13 +32,7 @@
     <t>voltaggio alimentatore</t>
   </si>
   <si>
-    <t>5,9</t>
-  </si>
-  <si>
     <t>5,4</t>
-  </si>
-  <si>
-    <t>7,5</t>
   </si>
   <si>
     <t>frequenza (Hz)</t>
@@ -53,22 +47,10 @@
     <t>8,6</t>
   </si>
   <si>
-    <t>12,6</t>
-  </si>
-  <si>
     <t>9,5</t>
   </si>
   <si>
-    <t>14,2</t>
-  </si>
-  <si>
     <t>10,6</t>
-  </si>
-  <si>
-    <t>10,15</t>
-  </si>
-  <si>
-    <t>10,1</t>
   </si>
   <si>
     <t>angolo (°)</t>
@@ -76,14 +58,14 @@
   <si>
     <t>tensione picco-picco (mV)</t>
   </si>
-  <si>
-    <t>10,2</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -182,9 +164,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -200,6 +193,1013 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$12:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$D$12:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A1E-4705-9A1A-E18202389D77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="386617144"/>
+        <c:axId val="386623048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="386617144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Angolo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> in Gradi °</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386623048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="386623048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Tensione</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> in mV</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386617144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,46 +1465,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H63"/>
+  <dimension ref="B2:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>2</v>
+      <c r="C4" s="10">
+        <v>5.9</v>
       </c>
       <c r="D4" s="7">
         <v>485</v>
@@ -513,12 +1513,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>7.5</v>
       </c>
       <c r="D5" s="7">
         <v>600</v>
@@ -527,12 +1527,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8">
-        <v>8875</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>8.875</v>
       </c>
       <c r="D6" s="7">
         <v>710</v>
@@ -541,11 +1541,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10">
         <v>11</v>
       </c>
       <c r="D7" s="7">
@@ -555,12 +1555,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>12.6</v>
       </c>
       <c r="D8" s="7">
         <v>1000</v>
@@ -569,45 +1569,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
+        <v>14.2</v>
       </c>
       <c r="D9" s="7">
-        <v>1020</v>
+        <v>1140</v>
       </c>
       <c r="E9" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="C10" s="10">
+        <v>16.2</v>
       </c>
       <c r="D10" s="7">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>7</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="10">
         <v>10</v>
       </c>
       <c r="D12" s="7">
@@ -617,12 +1617,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>7</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>13</v>
+      <c r="C13" s="10">
+        <v>10.15</v>
       </c>
       <c r="D13" s="7">
         <v>760</v>
@@ -631,11 +1631,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>7</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="10">
         <v>10</v>
       </c>
       <c r="D14" s="7">
@@ -644,14 +1644,13 @@
       <c r="E14" s="7">
         <v>30</v>
       </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>7</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>14</v>
+      <c r="C15" s="10">
+        <v>10.1</v>
       </c>
       <c r="D15" s="7">
         <v>560</v>
@@ -660,12 +1659,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>7</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>17</v>
+      <c r="C16" s="10">
+        <v>10.199999999999999</v>
       </c>
       <c r="D16" s="7">
         <v>390</v>
@@ -678,8 +1677,8 @@
       <c r="B17" s="7">
         <v>7</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>17</v>
+      <c r="C17" s="10">
+        <v>10.199999999999999</v>
       </c>
       <c r="D17" s="7">
         <v>180</v>
@@ -692,8 +1691,8 @@
       <c r="B18" s="7">
         <v>7</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>17</v>
+      <c r="C18" s="10">
+        <v>10.199999999999999</v>
       </c>
       <c r="D18" s="7">
         <v>20</v>
@@ -704,275 +1703,277 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="C48" s="12"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="C59" s="12"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="C60" s="12"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="C62" s="12"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="C63" s="12"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>